--- a/casefiles/testDemo.xlsx
+++ b/casefiles/testDemo.xlsx
@@ -7,10 +7,10 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="TestDemo" sheetId="1" r:id="rId1"/>
+    <sheet name="DemoTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDemo!$A:$A</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DemoTest!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -58,7 +58,7 @@
     <t>登录接口</t>
   </si>
   <si>
-    <t>api/user/login</t>
+    <t>/api/user/login</t>
   </si>
   <si>
     <t>Post</t>
@@ -106,6 +106,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -114,6 +143,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -122,10 +165,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,21 +212,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -160,91 +236,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,31 +265,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,61 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,85 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -525,16 +540,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +563,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,17 +597,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -605,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +617,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1167,7 +1167,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="15" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" ht="20.25" spans="1:9">
+    <row r="2" ht="22" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="14.25"/>
+    <row r="4" ht="42" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
